--- a/data/trans_dic/P22$concerEmp-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P22$concerEmp-Clase-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.007960999570554341</v>
+        <v>0.008121312139029415</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.004595201369252389</v>
+        <v>0.004642917714239978</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.005891641875388916</v>
+        <v>0.004912792007526469</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.008194404575546045</v>
+        <v>0.007974973050494097</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.003358866638442044</v>
+        <v>0.003345484868068458</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.00616989963139367</v>
+        <v>0.00602601022228675</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0025166050823771</v>
+        <v>0.002525885134110933</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.005939081980391861</v>
+        <v>0.005816620715946962</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.008961732189202551</v>
+        <v>0.009190032389590319</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.007095757065576832</v>
+        <v>0.00714569219422969</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.006060411936986221</v>
+        <v>0.00632062862957659</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.00941515886871528</v>
+        <v>0.009670687816789137</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03365652196359256</v>
+        <v>0.03263299162404491</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02711542372644937</v>
+        <v>0.02637365022455101</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03727371533118182</v>
+        <v>0.03435914370070501</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03239609546874137</v>
+        <v>0.03174852569946279</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03512107086513936</v>
+        <v>0.03469043729224065</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.03571990911310031</v>
+        <v>0.03764583100935995</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.0221085338347484</v>
+        <v>0.02337549206140215</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.02533734210737995</v>
+        <v>0.02534328308037615</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.02777122426377535</v>
+        <v>0.0263611755939299</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.023997973820897</v>
+        <v>0.02599091798281631</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.0241794934126815</v>
+        <v>0.02487500362195108</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.02430536607842238</v>
+        <v>0.02448926062286336</v>
       </c>
     </row>
     <row r="7">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.009781151203852522</v>
+        <v>0.009773445183763481</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01741419887895438</v>
+        <v>0.0188370581452252</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.005025924098739684</v>
+        <v>0.004868810212603118</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01649110571614405</v>
+        <v>0.01583822242975839</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.009384360824342616</v>
+        <v>0.009635880766285243</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.00585184011608663</v>
+        <v>0.005347479996479802</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01166786618803951</v>
+        <v>0.01160124058687121</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01243289377161212</v>
+        <v>0.0112039086269388</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.004671632276071279</v>
+        <v>0.004591234191922634</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01421001451181446</v>
+        <v>0.01443282069756519</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0417874655249718</v>
+        <v>0.04272684175235781</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06024153790617501</v>
+        <v>0.06261408738203865</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03720858030947413</v>
+        <v>0.03109210768804</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05222209407592879</v>
+        <v>0.0521713821760462</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03774209615830187</v>
+        <v>0.04114381689938967</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02068827137481133</v>
+        <v>0.02022680435935108</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01579325875172722</v>
+        <v>0.01756936410945108</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02796686907131271</v>
+        <v>0.02644603212811537</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03413383979207708</v>
+        <v>0.03302672733784198</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03660111824722641</v>
+        <v>0.03734817433847949</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01995424726302608</v>
+        <v>0.02154899073723946</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03562137190491538</v>
+        <v>0.03566554404957554</v>
       </c>
     </row>
     <row r="10">
@@ -980,16 +980,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01583061407160758</v>
+        <v>0.01553854016044796</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0032040266674276</v>
+        <v>0.003194917027756243</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.007341441606983868</v>
+        <v>0.007615949627955284</v>
       </c>
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="inlineStr"/>
@@ -1000,16 +1000,16 @@
         <v>0</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01190860822606406</v>
+        <v>0.01170233732472449</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.002256342281824116</v>
+        <v>0.002294784449339769</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.007257797450124693</v>
+        <v>0.007061106677127752</v>
       </c>
     </row>
     <row r="12">
@@ -1020,36 +1020,36 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04223033783007345</v>
+        <v>0.04256644803319778</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01908512705000663</v>
+        <v>0.01903139595906183</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01880403718878481</v>
+        <v>0.01831516976167908</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03523315911567301</v>
+        <v>0.03658445490233588</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="n">
-        <v>0.0368319363368408</v>
+        <v>0.03111109682298336</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.0225560541504578</v>
+        <v>0.02600279986609223</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03243906335610359</v>
+        <v>0.03216731469702343</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.01395084230966571</v>
+        <v>0.01341221827572615</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01494789271601436</v>
+        <v>0.0137433567488399</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.02778696154831094</v>
+        <v>0.02853875642461117</v>
       </c>
     </row>
     <row r="13">
@@ -1097,7 +1097,7 @@
         <v>0.00498034933361657</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.008423465380062833</v>
+        <v>0.008423465380062835</v>
       </c>
     </row>
     <row r="14">
@@ -1108,40 +1108,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01525744858417766</v>
+        <v>0.01556246084973576</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.005858876754280933</v>
+        <v>0.005880428008705228</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0008533008335215903</v>
+        <v>0.0008550395868077324</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.004109481986348217</v>
+        <v>0.00397140306930133</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.001321611365617853</v>
+        <v>0.001318707184562999</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.001234496146172449</v>
+        <v>0.001231791592928259</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.002521010199152855</v>
+        <v>0.002441112514526603</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.002912852782425285</v>
+        <v>0.002987403540913673</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01128187144470977</v>
+        <v>0.01139612586819175</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.004863296195250922</v>
+        <v>0.004691135972486108</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.002482940925487334</v>
+        <v>0.002303597633312597</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.004795535163359635</v>
+        <v>0.004897344733255912</v>
       </c>
     </row>
     <row r="15">
@@ -1152,40 +1152,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0330728614725671</v>
+        <v>0.03334775019822215</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01915238124577788</v>
+        <v>0.0191751223281776</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.00882275052880821</v>
+        <v>0.009539907896408288</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02100875195203274</v>
+        <v>0.02059209207610561</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.01174051593977959</v>
+        <v>0.01236276271684805</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.01033448587097993</v>
+        <v>0.0103183335033074</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.01562507084439932</v>
+        <v>0.01491275964720073</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.01203815785018084</v>
+        <v>0.01233364340821058</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02408023543225937</v>
+        <v>0.02373518870167081</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.01331118327271391</v>
+        <v>0.01372446877734667</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.00882137737865004</v>
+        <v>0.009353134150671726</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.01577360479244526</v>
+        <v>0.01482147305278426</v>
       </c>
     </row>
     <row r="16">
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.01316196583065559</v>
+        <v>0.01316196583065558</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.004085090316141223</v>
@@ -1233,7 +1233,7 @@
         <v>0.0006518357087394097</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.007400038612863547</v>
+        <v>0.007400038612863545</v>
       </c>
     </row>
     <row r="17">
@@ -1244,14 +1244,14 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01908242300543455</v>
+        <v>0.01958449818260779</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="5" t="inlineStr"/>
       <c r="F17" s="5" t="n">
-        <v>0.00526839648547198</v>
+        <v>0.005499252265027807</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>0</v>
@@ -1263,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.000877261896068549</v>
+        <v>0.0008852143664270805</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.009590426125947005</v>
+        <v>0.008757493549571858</v>
       </c>
       <c r="L17" s="5" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.00372130684723296</v>
+        <v>0.003470954317237758</v>
       </c>
     </row>
     <row r="18">
@@ -1286,38 +1286,38 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06034285245015009</v>
+        <v>0.06130564728456433</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.008894733975908743</v>
+        <v>0.007944358175995734</v>
       </c>
       <c r="E18" s="5" t="inlineStr"/>
       <c r="F18" s="5" t="n">
-        <v>0.02766171135275299</v>
+        <v>0.02991004957887685</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.0141685509105089</v>
+        <v>0.01231150084201981</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.006405479208000211</v>
+        <v>0.006460822795767865</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.007159239763604737</v>
+        <v>0.00724894714084598</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.00868028058355755</v>
+        <v>0.008319641824606268</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.02690179187180551</v>
+        <v>0.0251991282796849</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.005218781489957438</v>
+        <v>0.005119489391489604</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.003923064490618377</v>
+        <v>0.003809510370817871</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.01368159364668003</v>
+        <v>0.01348255599609985</v>
       </c>
     </row>
     <row r="19">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="I20" s="5" t="inlineStr"/>
       <c r="J20" s="5" t="n">
-        <v>0.001005619952211523</v>
+        <v>0.001077312221241406</v>
       </c>
       <c r="K20" s="5" t="n">
         <v>0</v>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.0008001148767817382</v>
+        <v>0.0008173021016207675</v>
       </c>
     </row>
     <row r="21">
@@ -1414,34 +1414,34 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.01656457418473792</v>
+        <v>0.01790554251214336</v>
       </c>
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="n">
-        <v>0.02442019128735602</v>
+        <v>0.024325861467689</v>
       </c>
       <c r="F21" s="5" t="inlineStr"/>
       <c r="G21" s="5" t="n">
-        <v>0.004091982415503148</v>
+        <v>0.00427244174254708</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.006266273137823601</v>
+        <v>0.006365478809914673</v>
       </c>
       <c r="I21" s="5" t="inlineStr"/>
       <c r="J21" s="5" t="n">
-        <v>0.0136862992338215</v>
+        <v>0.01364332430363876</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.004525370994426567</v>
+        <v>0.004094631497704108</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.005184141407094985</v>
+        <v>0.005115488142581231</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.005097095204570034</v>
+        <v>0.00511737283721855</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.009378252559793791</v>
+        <v>0.0108365113980109</v>
       </c>
     </row>
     <row r="22">
@@ -1500,40 +1500,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01783453362487025</v>
+        <v>0.01769760464222091</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.008190713347118727</v>
+        <v>0.008258337037954314</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.003288183902558965</v>
+        <v>0.003157597953781532</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.0110759233929729</v>
+        <v>0.01076060511188195</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.003260357765139944</v>
+        <v>0.003304187008740235</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.002099315519071648</v>
+        <v>0.002184329854518189</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.001961262571347054</v>
+        <v>0.001978728441159894</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.004618148426987945</v>
+        <v>0.004563057803176977</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.01118930786838015</v>
+        <v>0.01127857410873551</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.005549750110504893</v>
+        <v>0.005692110190248991</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.003061979018798403</v>
+        <v>0.003233603980653681</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.008595718718915913</v>
+        <v>0.00829194473546758</v>
       </c>
     </row>
     <row r="24">
@@ -1544,40 +1544,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.02837629213952374</v>
+        <v>0.02828749773469575</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0156509019785262</v>
+        <v>0.0159352377927393</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.009379632145305431</v>
+        <v>0.009028822142098237</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.02009288954136752</v>
+        <v>0.02012510605056253</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.008228855063954307</v>
+        <v>0.008650156336056047</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.005961052558000372</v>
+        <v>0.006081144012199523</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.006183048857987147</v>
+        <v>0.006120418886832222</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.009513837925896497</v>
+        <v>0.009345711222379607</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.01697684420181153</v>
+        <v>0.01681666192403614</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.009952332155420662</v>
+        <v>0.01003652829374828</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.006617260551135522</v>
+        <v>0.007006797042083159</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.01369197821109436</v>
+        <v>0.01340587909221949</v>
       </c>
     </row>
     <row r="25">
@@ -1850,40 +1850,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3760</v>
+        <v>3835</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2009</v>
+        <v>2030</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2528</v>
+        <v>2108</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>4512</v>
+        <v>4391</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1940</v>
+        <v>1895</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2901</v>
+        <v>2841</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>6981</v>
+        <v>7159</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>5334</v>
+        <v>5371</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>4704</v>
+        <v>4906</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>9783</v>
+        <v>10048</v>
       </c>
     </row>
     <row r="7">
@@ -1894,40 +1894,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>15895</v>
+        <v>15412</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>11855</v>
+        <v>11531</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>15994</v>
+        <v>14743</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>17838</v>
+        <v>17481</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>10771</v>
+        <v>10639</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>11232</v>
+        <v>11838</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>7673</v>
+        <v>8113</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>12375</v>
+        <v>12378</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>21632</v>
+        <v>20534</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>18038</v>
+        <v>19536</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>18767</v>
+        <v>19307</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>25254</v>
+        <v>25445</v>
       </c>
     </row>
     <row r="8">
@@ -2030,19 +2030,19 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3589</v>
+        <v>3586</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>7293</v>
+        <v>7889</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1891</v>
+        <v>1832</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>7969</v>
+        <v>7653</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>3490</v>
+        <v>3583</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>0</v>
@@ -2051,19 +2051,19 @@
         <v>0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>2476</v>
+        <v>2263</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>8620</v>
+        <v>8571</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>9409</v>
+        <v>8479</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>3497</v>
+        <v>3437</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>12879</v>
+        <v>13081</v>
       </c>
     </row>
     <row r="11">
@@ -2074,40 +2074,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>15333</v>
+        <v>15678</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>25229</v>
+        <v>26223</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>14000</v>
+        <v>11699</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>25234</v>
+        <v>25210</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>14035</v>
+        <v>15300</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>6993</v>
+        <v>6837</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>5879</v>
+        <v>6541</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>11834</v>
+        <v>11190</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>25218</v>
+        <v>24400</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>27700</v>
+        <v>28265</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>14936</v>
+        <v>16130</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>32286</v>
+        <v>32326</v>
       </c>
     </row>
     <row r="12">
@@ -2210,16 +2210,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>8573</v>
+        <v>8415</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>3462</v>
+        <v>3592</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
@@ -2230,16 +2230,16 @@
         <v>0</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>8447</v>
+        <v>8301</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>2007</v>
+        <v>2041</v>
       </c>
       <c r="M14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>4784</v>
+        <v>4654</v>
       </c>
     </row>
     <row r="15">
@@ -2250,36 +2250,36 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>22871</v>
+        <v>23053</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>12012</v>
+        <v>11979</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>9814</v>
+        <v>9559</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>16616</v>
+        <v>17254</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>6119</v>
+        <v>5168</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>4229</v>
+        <v>4875</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>23011</v>
+        <v>22818</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>12410</v>
+        <v>11931</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>10285</v>
+        <v>9456</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>18315</v>
+        <v>18810</v>
       </c>
     </row>
     <row r="16">
@@ -2382,40 +2382,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>18846</v>
+        <v>19222</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>6785</v>
+        <v>6810</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>4651</v>
+        <v>4495</v>
       </c>
       <c r="G18" s="6" t="n">
+        <v>942</v>
+      </c>
+      <c r="H18" s="6" t="n">
         <v>944</v>
       </c>
-      <c r="H18" s="6" t="n">
-        <v>946</v>
-      </c>
       <c r="I18" s="6" t="n">
-        <v>2073</v>
+        <v>2007</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2509</v>
+        <v>2573</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>21994</v>
+        <v>22216</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>9360</v>
+        <v>9029</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>4894</v>
+        <v>4540</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>9558</v>
+        <v>9761</v>
       </c>
     </row>
     <row r="19">
@@ -2426,40 +2426,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>40851</v>
+        <v>41190</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>22179</v>
+        <v>22205</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>10135</v>
+        <v>10959</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>23779</v>
+        <v>23307</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>8386</v>
+        <v>8831</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>7923</v>
+        <v>7911</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>12849</v>
+        <v>12263</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>10367</v>
+        <v>10622</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>46943</v>
+        <v>46271</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>25620</v>
+        <v>26415</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>17387</v>
+        <v>18435</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>31438</v>
+        <v>29540</v>
       </c>
     </row>
     <row r="20">
@@ -2562,14 +2562,14 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>6689</v>
+        <v>6865</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E22" s="6" t="inlineStr"/>
       <c r="F22" s="6" t="n">
-        <v>2992</v>
+        <v>3123</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0</v>
@@ -2581,10 +2581,10 @@
         <v>0</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>8817</v>
+        <v>8051</v>
       </c>
       <c r="L22" s="6" t="n">
         <v>0</v>
@@ -2593,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>5203</v>
+        <v>4853</v>
       </c>
     </row>
     <row r="23">
@@ -2604,38 +2604,38 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>21153</v>
+        <v>21491</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>4542</v>
+        <v>4056</v>
       </c>
       <c r="E23" s="6" t="inlineStr"/>
       <c r="F23" s="6" t="n">
-        <v>15711</v>
+        <v>16988</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>8058</v>
+        <v>7002</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>4878</v>
+        <v>4920</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>5278</v>
+        <v>5344</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>7206</v>
+        <v>6906</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>24731</v>
+        <v>23166</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>6639</v>
+        <v>6513</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>5323</v>
+        <v>5169</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>19128</v>
+        <v>18850</v>
       </c>
     </row>
     <row r="24">
@@ -2753,7 +2753,7 @@
       </c>
       <c r="I26" s="6" t="inlineStr"/>
       <c r="J26" s="6" t="n">
-        <v>849</v>
+        <v>910</v>
       </c>
       <c r="K26" s="6" t="n">
         <v>0</v>
@@ -2765,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>865</v>
+        <v>884</v>
       </c>
     </row>
     <row r="27">
@@ -2776,34 +2776,34 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>4924</v>
+        <v>5323</v>
       </c>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="n">
-        <v>7012</v>
+        <v>6985</v>
       </c>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="n">
-        <v>5102</v>
+        <v>5327</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>6951</v>
+        <v>7062</v>
       </c>
       <c r="I27" s="6" t="inlineStr"/>
       <c r="J27" s="6" t="n">
-        <v>11555</v>
+        <v>11519</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>6987</v>
+        <v>6322</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>7135</v>
+        <v>7040</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>6972</v>
+        <v>7000</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>10143</v>
+        <v>11720</v>
       </c>
     </row>
     <row r="28">
@@ -2906,40 +2906,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>58208</v>
+        <v>57761</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>28020</v>
+        <v>28251</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>11123</v>
+        <v>10681</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>38129</v>
+        <v>37043</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>11007</v>
+        <v>11155</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>7453</v>
+        <v>7755</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>6915</v>
+        <v>6977</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>16785</v>
+        <v>16585</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>74296</v>
+        <v>74888</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>38688</v>
+        <v>39680</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>21154</v>
+        <v>22339</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>60833</v>
+        <v>58683</v>
       </c>
     </row>
     <row r="31">
@@ -2950,40 +2950,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>92614</v>
+        <v>92324</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>53541</v>
+        <v>54513</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>31728</v>
+        <v>30541</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>69169</v>
+        <v>69280</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>27781</v>
+        <v>29204</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>21162</v>
+        <v>21589</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>21800</v>
+        <v>21579</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>34580</v>
+        <v>33969</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>112724</v>
+        <v>111661</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>69378</v>
+        <v>69965</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>45715</v>
+        <v>48406</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>96900</v>
+        <v>94875</v>
       </c>
     </row>
     <row r="32">
